--- a/jpcore-r4/feature/develop-acition/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/develop-acition/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T05:09:15+00:00</t>
+    <t>2023-11-16T05:25:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
